--- a/pa/PA5/test-cases v1.1.xlsx
+++ b/pa/PA5/test-cases v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoth\Desktop\AISE\pa\PA5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAACF5FA-5E8A-49C2-82E6-67812D58EDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707F927D-9E5D-4A89-9604-B0FE4B6D9D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11235" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11235" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="133">
   <si>
     <r>
       <rPr>
@@ -303,19 +303,6 @@
 2. User not signed up</t>
   </si>
   <si>
-    <t>UI08</t>
-  </si>
-  <si>
-    <t>Create customer account with used username</t>
-  </si>
-  <si>
-    <t>1. System displays "Username is already in use" message
-2. User not signed up</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>Function 02: Hotel rooms management</t>
   </si>
   <si>
@@ -374,6 +361,9 @@
 2. Room type not added to the room</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>Hotel owner remove a room type to the hotel</t>
   </si>
   <si>
@@ -548,22 +538,6 @@
 2. User avatar updated</t>
   </si>
   <si>
-    <t>User change username to already used username</t>
-  </si>
-  <si>
-    <t>1. Click "Profile" on the navigation bar
-2. Change username to a username already used
-3. Click "Save changes"</t>
-  </si>
-  <si>
-    <t>1. System displays "Username already used"
-2. User username not updated</t>
-  </si>
-  <si>
-    <t>1. System displays "Update profile successful"
-2. User username updated</t>
-  </si>
-  <si>
     <t>User update profile with missing information</t>
   </si>
   <si>
@@ -590,6 +564,9 @@
   <si>
     <t>1. Login account
 2. Access the landing page</t>
+  </si>
+  <si>
+    <t>1. Display landing page quickly</t>
   </si>
   <si>
     <t>1. Login account
@@ -600,9 +577,6 @@
   </si>
   <si>
     <t>All page render perfectly  per the design specifications</t>
-  </si>
-  <si>
-    <t>1. Display landing page quickly</t>
   </si>
 </sst>
 </file>
@@ -724,16 +698,6 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -774,6 +738,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment wrapText="1"/>
     </dxf>
   </dxfs>
@@ -802,18 +776,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:J36" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:J34" totalsRowShown="0" dataDxfId="10">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Function/Feature ID" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Case ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test case name" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Test step" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Expected Result (ER)" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Actual Result" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Tester" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tested Date" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Remark" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Function/Feature ID" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Case ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test case name" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Test step" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Expected Result (ER)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Actual Result" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Tester" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tested Date" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Remark" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1108,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1231,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,66 +1464,66 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="F11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>39</v>
@@ -1560,24 +1534,24 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>39</v>
@@ -1588,27 +1562,27 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>76</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>40</v>
@@ -1621,22 +1595,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>40</v>
@@ -1649,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>81</v>
@@ -1672,54 +1646,54 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="6" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="E18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>88</v>
@@ -1731,12 +1705,12 @@
         <v>90</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="I19" s="5"/>
@@ -1747,16 +1721,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>94</v>
@@ -1770,7 +1744,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -1798,238 +1772,238 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="6" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="D23" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="E23" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F23" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>35</v>
+      <c r="B24" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="G24" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="E26" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="F26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="9" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D28" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>35</v>
+      <c r="B29" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="9" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="E31" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="F31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>120</v>
@@ -2057,7 +2031,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>123</v>
@@ -2074,18 +2048,18 @@
       <c r="G33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>126</v>
@@ -2097,10 +2071,10 @@
         <v>128</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>66</v>
+        <v>128</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>40</v>
@@ -2108,65 +2082,9 @@
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
